--- a/Paper Rebuttal/Review#2309B Bypass-the-detection/Evasion Results all-in-one.xlsx
+++ b/Paper Rebuttal/Review#2309B Bypass-the-detection/Evasion Results all-in-one.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconn-my.sharepoint.com/personal/shenao_yan_uconn_edu/Documents/Desktop/rebuttal/Review#2309B Bypass-the-detection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconn-my.sharepoint.com/personal/shenao_yan_uconn_edu/Documents/Desktop/Poisoning-Attack-on-Code-Completion-Models/Paper Rebuttal/Review#2309B Bypass-the-detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC104823219941E45BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCA9F14F-F0FF-486B-8C21-4B651BA84324}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="15" yWindow="0" windowWidth="2400" windowHeight="585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rebuttal Results (SA)" sheetId="1" r:id="rId1"/>
@@ -606,22 +606,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -638,6 +626,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -956,12 +956,12 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -982,12 +982,12 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1008,12 +1008,12 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1060,12 +1060,12 @@
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1112,12 +1112,12 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1138,24 +1138,24 @@
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1164,12 +1164,12 @@
       <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1190,12 +1190,12 @@
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E9F3CC-F05B-40F0-A46C-E3A30F429FFE}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,281 +1240,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="11" t="s">
         <v>91</v>
       </c>
     </row>
